--- a/CMPE 281 -  Sprint Task Sheet.xlsx
+++ b/CMPE 281 -  Sprint Task Sheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint" sheetId="1" state="visible" r:id="rId2"/>
@@ -205,7 +205,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="M/D"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="25">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -227,6 +227,87 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="24"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="10"/>
+      <color rgb="FF808080"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF006600"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF996600"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFCC0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -298,17 +379,58 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
+        <bgColor rgb="FFF4CCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC0000"/>
+        <bgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF003300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFCFE2F3"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -319,25 +441,19 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FFDC3912"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FF003300"/>
+        <bgColor rgb="FFCC0000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFCFE2F3"/>
-        <bgColor rgb="FFCCFFFF"/>
+        <bgColor rgb="FFDDDDDD"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF4CCCC"/>
-        <bgColor rgb="FFCFE2F3"/>
+        <bgColor rgb="FFFFCCCC"/>
       </patternFill>
     </fill>
     <fill>
@@ -347,12 +463,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FF808080"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF808080"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF808080"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF808080"/>
+      </bottom>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -436,7 +567,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="36">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -460,188 +591,252 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="43">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="9" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="10" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="10" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="6" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="6" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="6" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="6" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="6" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="17" fillId="6" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="17" fillId="6" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="18" fillId="6" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="18" fillId="6" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="6" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="6" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="6" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="11" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="11" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="11" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="12" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="12" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="12" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="12" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="12" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="11" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="11" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="22">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Heading" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 2" xfId="22" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Text" xfId="23" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Note" xfId="24" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Status" xfId="26" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Good" xfId="27" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Neutral" xfId="28" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Bad" xfId="29" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Warning" xfId="30" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Error" xfId="31" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent" xfId="32" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 1" xfId="33" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 2" xfId="34" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 3" xfId="35" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -653,10 +848,10 @@
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FFCC0000"/>
+      <rgbColor rgb="FF006600"/>
       <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF996600"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFB7B7B7"/>
@@ -664,7 +859,7 @@
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFDDDDDD"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
@@ -682,9 +877,9 @@
       <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFF4CCCC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFF4CCCC"/>
+      <rgbColor rgb="FFFFCCCC"/>
       <rgbColor rgb="FF3366CC"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
@@ -706,7 +901,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -717,6 +912,222 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="3366cc">
+                <a:alpha val="30000"/>
+              </a:srgbClr>
+            </a:solidFill>
+            <a:ln w="19080">
+              <a:solidFill>
+                <a:srgbClr val="3366cc"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sprint!$E$3:$AG$3</c:f>
+              <c:strCache>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>10/22</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10/23</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9/24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10/25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10/26</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10/27</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10/28</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10/29</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10/30</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10/31</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11/1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11/2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11/3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11/4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>11/5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>11/6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>11/7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>11/8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>11/9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>11/10</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>11/11</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>11/12</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>11/13</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>11/14</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>11/15</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>11/16</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>11/17</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>11/18</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v/>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sprint!$E$4:$AG$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-19</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-28</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v/>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
           <c:spPr>
             <a:solidFill>
               <a:srgbClr val="dc3912">
@@ -858,19 +1269,19 @@
                   <c:v>135</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>131</c:v>
+                  <c:v>129</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>131</c:v>
+                  <c:v>127</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>131</c:v>
+                  <c:v>127</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>124</c:v>
+                  <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>122</c:v>
+                  <c:v>113</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v/>
@@ -930,227 +1341,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="3366cc">
-                <a:alpha val="30000"/>
-              </a:srgbClr>
-            </a:solidFill>
-            <a:ln w="19080">
-              <a:solidFill>
-                <a:srgbClr val="3366cc"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:dLbls>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sprint!$E$3:$AG$3</c:f>
-              <c:strCache>
-                <c:ptCount val="29"/>
-                <c:pt idx="0">
-                  <c:v>10/22</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10/23</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9/24</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10/25</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10/26</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10/27</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10/28</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>10/29</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10/30</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10/31</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11/1</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11/2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>11/3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>11/4</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>11/5</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>11/6</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>11/7</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>11/8</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>11/9</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>11/10</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>11/11</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>11/12</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>11/13</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>11/14</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>11/15</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>11/16</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>11/17</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>11/18</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v/>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sprint!$E$4:$AG$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
-                <c:pt idx="0">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>192</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>184</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>176</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>168</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>152</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>143</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>134</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>125</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>116</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>107</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-10</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-19</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-28</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v/>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:axId val="53692063"/>
-        <c:axId val="71985880"/>
+        <c:axId val="30886622"/>
+        <c:axId val="40642277"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="53692063"/>
+        <c:axId val="30886622"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1221,14 +1416,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="71985880"/>
+        <c:crossAx val="40642277"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="71985880"/>
+        <c:axId val="40642277"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1309,9 +1504,8 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="53692063"/>
+        <c:crossAx val="30886622"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1353,9 +1547,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>532440</xdr:colOff>
+      <xdr:colOff>532080</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>40320</xdr:rowOff>
+      <xdr:rowOff>39960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1364,7 +1558,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="390600" y="1215720"/>
-        <a:ext cx="10143000" cy="3923640"/>
+        <a:ext cx="10142640" cy="3923280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1384,18 +1578,18 @@
   </sheetPr>
   <dimension ref="A1:AG25"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Y16" activeCellId="0" sqref="Y16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="V27" activeCellId="0" sqref="V27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultRowHeight="12.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="43.1989795918367"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="49"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="14.1734693877551"/>
-    <col collapsed="false" hidden="false" max="32" min="5" style="0" width="4.86224489795918"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="21.0612244897959"/>
-    <col collapsed="false" hidden="false" max="1025" min="34" style="0" width="14.1734693877551"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="43.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="14.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="5" style="0" width="4.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="0" width="21.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="34" style="0" width="14.17"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1781,23 +1975,23 @@
       </c>
       <c r="K5" s="19" t="n">
         <f aca="false">SUM(K6:K18)</f>
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L5" s="17" t="n">
         <f aca="false">SUM(L6:L16)</f>
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="M5" s="18" t="n">
         <f aca="false">SUM(M6:M15)</f>
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="N5" s="18" t="n">
         <f aca="false">SUM(N6:N15)</f>
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="O5" s="18" t="n">
         <f aca="false">SUM(O6:O15)</f>
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="P5" s="18"/>
       <c r="Q5" s="18"/>
@@ -1855,54 +2049,68 @@
         <v>17</v>
       </c>
       <c r="L6" s="28" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M6" s="29" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N6" s="29" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O6" s="29" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P6" s="29" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="Q6" s="29" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="R6" s="30" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="S6" s="25" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="T6" s="26" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="U6" s="26" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="V6" s="26" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="W6" s="26" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="X6" s="26" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="Y6" s="27" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z6" s="31"/>
-      <c r="AA6" s="32"/>
-      <c r="AB6" s="32"/>
-      <c r="AC6" s="32"/>
-      <c r="AD6" s="32"/>
-      <c r="AE6" s="32"/>
-      <c r="AF6" s="32"/>
+        <v>9</v>
+      </c>
+      <c r="Z6" s="31" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA6" s="32" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB6" s="32" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC6" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="21"/>
@@ -1943,48 +2151,62 @@
         <v>18</v>
       </c>
       <c r="N7" s="29" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="O7" s="29" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="P7" s="29" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="Q7" s="29" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="R7" s="30" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="S7" s="25" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="T7" s="26" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="U7" s="26" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="V7" s="26" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="W7" s="26" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="X7" s="26" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="Y7" s="27" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z7" s="31"/>
-      <c r="AA7" s="32"/>
-      <c r="AB7" s="32"/>
-      <c r="AC7" s="32"/>
-      <c r="AD7" s="32"/>
-      <c r="AE7" s="32"/>
-      <c r="AF7" s="32"/>
+        <v>8</v>
+      </c>
+      <c r="Z7" s="31" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA7" s="32" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB7" s="32" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC7" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="21" t="s">
@@ -2042,33 +2264,47 @@
         <v>14</v>
       </c>
       <c r="S8" s="25" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="T8" s="26" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="U8" s="26" t="n">
         <v>14</v>
       </c>
       <c r="V8" s="26" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="W8" s="26" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="X8" s="26" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="Y8" s="27" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z8" s="31"/>
-      <c r="AA8" s="32"/>
-      <c r="AB8" s="32"/>
-      <c r="AC8" s="32"/>
-      <c r="AD8" s="32"/>
-      <c r="AE8" s="32"/>
-      <c r="AF8" s="32"/>
+        <v>11</v>
+      </c>
+      <c r="Z8" s="31" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA8" s="32" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB8" s="32" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC8" s="32" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD8" s="32" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE8" s="32" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF8" s="32" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="21"/>
@@ -2100,37 +2336,37 @@
         <v>18</v>
       </c>
       <c r="K9" s="27" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L9" s="28" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M9" s="29" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N9" s="29" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="O9" s="29" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="P9" s="29" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="Q9" s="29" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="R9" s="30" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="S9" s="25" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="T9" s="26" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="U9" s="26" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="V9" s="26" t="n">
         <v>17</v>
@@ -2142,15 +2378,29 @@
         <v>15</v>
       </c>
       <c r="Y9" s="27" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z9" s="31"/>
-      <c r="AA9" s="32"/>
-      <c r="AB9" s="32"/>
-      <c r="AC9" s="32"/>
-      <c r="AD9" s="32"/>
-      <c r="AE9" s="32"/>
-      <c r="AF9" s="32"/>
+        <v>9</v>
+      </c>
+      <c r="Z9" s="31" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA9" s="32" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB9" s="32" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC9" s="32" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD9" s="32" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE9" s="32" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF9" s="32" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="21"/>
@@ -2191,48 +2441,62 @@
         <v>16</v>
       </c>
       <c r="N10" s="29" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O10" s="29" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="P10" s="29" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="Q10" s="29" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="R10" s="30" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="S10" s="25" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="T10" s="26" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="U10" s="26" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="V10" s="26" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="W10" s="26" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="X10" s="26" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="Y10" s="27" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z10" s="31"/>
-      <c r="AA10" s="32"/>
-      <c r="AB10" s="32"/>
-      <c r="AC10" s="32"/>
-      <c r="AD10" s="32"/>
-      <c r="AE10" s="32"/>
-      <c r="AF10" s="32"/>
+        <v>3</v>
+      </c>
+      <c r="Z10" s="31" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA10" s="32" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB10" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC10" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD10" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE10" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF10" s="32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="21"/>
@@ -2308,13 +2572,27 @@
       <c r="Y11" s="27" t="n">
         <v>7</v>
       </c>
-      <c r="Z11" s="31"/>
-      <c r="AA11" s="32"/>
-      <c r="AB11" s="32"/>
-      <c r="AC11" s="32"/>
-      <c r="AD11" s="32"/>
-      <c r="AE11" s="32"/>
-      <c r="AF11" s="32"/>
+      <c r="Z11" s="31" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA11" s="32" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB11" s="32" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC11" s="32" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD11" s="32" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE11" s="32" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF11" s="32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="21"/>
@@ -2390,13 +2668,27 @@
       <c r="Y12" s="27" t="n">
         <v>7</v>
       </c>
-      <c r="Z12" s="31"/>
-      <c r="AA12" s="32"/>
-      <c r="AB12" s="32"/>
-      <c r="AC12" s="32"/>
-      <c r="AD12" s="32"/>
-      <c r="AE12" s="32"/>
-      <c r="AF12" s="32"/>
+      <c r="Z12" s="31" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA12" s="32" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB12" s="32" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC12" s="32" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD12" s="32" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE12" s="32" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF12" s="32" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="21"/>
@@ -2472,13 +2764,27 @@
       <c r="Y13" s="27" t="n">
         <v>7</v>
       </c>
-      <c r="Z13" s="31"/>
-      <c r="AA13" s="32"/>
-      <c r="AB13" s="32"/>
-      <c r="AC13" s="32"/>
-      <c r="AD13" s="32"/>
-      <c r="AE13" s="32"/>
-      <c r="AF13" s="32"/>
+      <c r="Z13" s="31" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA13" s="32" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB13" s="32" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC13" s="32" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD13" s="32" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE13" s="32" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF13" s="32" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="33" t="s">
@@ -2556,13 +2862,27 @@
       <c r="Y14" s="27" t="n">
         <v>7</v>
       </c>
-      <c r="Z14" s="31"/>
-      <c r="AA14" s="32"/>
-      <c r="AB14" s="32"/>
-      <c r="AC14" s="32"/>
-      <c r="AD14" s="32"/>
-      <c r="AE14" s="32"/>
-      <c r="AF14" s="32"/>
+      <c r="Z14" s="31" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA14" s="32" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB14" s="32" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC14" s="32" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD14" s="32" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE14" s="32" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF14" s="32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="33"/>
@@ -2638,13 +2958,27 @@
       <c r="Y15" s="27" t="n">
         <v>5</v>
       </c>
-      <c r="Z15" s="31"/>
-      <c r="AA15" s="32"/>
-      <c r="AB15" s="32"/>
-      <c r="AC15" s="32"/>
-      <c r="AD15" s="32"/>
-      <c r="AE15" s="32"/>
-      <c r="AF15" s="32"/>
+      <c r="Z15" s="31" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA15" s="32" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB15" s="32" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC15" s="32" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD15" s="32" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE15" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="34"/>
@@ -2918,7 +3252,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -2933,13 +3267,13 @@
   </sheetPr>
   <dimension ref="A1:Z65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultRowHeight="12.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="14.1734693877551"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="14.17"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2974,7 +3308,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
